--- a/DataTables/Datas/emptyGoTo.xlsx
+++ b/DataTables/Datas/emptyGoTo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="17055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>Lcc</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -69,13 +69,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>windowType</t>
-  </si>
-  <si>
-    <t>windowName</t>
-  </si>
-  <si>
-    <t>windowNameDes</t>
+    <t>panelType</t>
+  </si>
+  <si>
+    <t>panelName</t>
   </si>
   <si>
     <t>funcType</t>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>跳转界面</t>
-  </si>
-  <si>
-    <t>跳转界面UI名称</t>
   </si>
   <si>
     <t>功能类型</t>
@@ -1080,15 +1074,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,102 +1107,93 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:5">
       <c r="B5">
         <v>10000</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>

--- a/DataTables/Datas/emptyGoTo.xlsx
+++ b/DataTables/Datas/emptyGoTo.xlsx
@@ -90,7 +90,7 @@
     <t>param3</t>
   </si>
   <si>
-    <t>sceneID</t>
+    <t>procedureID</t>
   </si>
   <si>
     <t>##type</t>
@@ -129,7 +129,7 @@
     <t>参数3</t>
   </si>
   <si>
-    <t>场景位或</t>
+    <t>流程位或</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
